--- a/otchet.xlsx
+++ b/otchet.xlsx
@@ -423,7 +423,7 @@
     <row r="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>Сведения по составу группы БВТ2003 за 14.12.2020 г.</t>
+          <t>Сведения по составу группы БВТ2003 за 13.04.2021 г.</t>
         </is>
       </c>
       <c r="B1" s="5" t="n"/>
